--- a/medicine/Mort/Cimetières_rouennais/Cimetières_rouennais.xlsx
+++ b/medicine/Mort/Cimetières_rouennais/Cimetières_rouennais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8res_rouennais</t>
+          <t>Cimetières_rouennais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cimetières rouennais sont des cimetières administrés par la Ville de Rouen.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8res_rouennais</t>
+          <t>Cimetières_rouennais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rouen possédait à l'époque gallo-romaine 3 cimetières répertoriés : le cimetière de l'Ouest dans le quartier Saint-Gervais, la nécropole du Nord face au lycée Corneille et le cimetière de l'Est dans la rue Saint-Hilaire.
 Au Moyen Âge, les personnages importants ont des monuments funéraires dans les églises et la cathédrale. Chaque église possédait son cimetière, généralement attenant, qui prenait parfois le nom d'aître.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8res_rouennais</t>
+          <t>Cimetières_rouennais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,19 +565,92 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cimetières civils actuels
-Cimetière Saint-Sever
+          <t>Cimetières civils actuels</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cimetière Saint-Sever
 Cimetière Saint-Maclou, plus connu aujourd'hui sous le nom de cimetière du Mont-Gargan, ouvert en 1780
-Cimetière monumental, créé en 1828, imaginé comme une réplique du cimetière du Père-Lachaise[1].
+Cimetière monumental, créé en 1828, imaginé comme une réplique du cimetière du Père-Lachaise.
 Cimetière du Nord, ouvert en 1880
-Cimetière de l'Ouest, ouvert en 1883
-Cimetières militaires
-Carré de soldats prussiens de la guerre de 1870 dans le cimetière monumental
+Cimetière de l'Ouest, ouvert en 1883</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetières_rouennais</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8res_rouennais</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cimetières militaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Carré de soldats prussiens de la guerre de 1870 dans le cimetière monumental
 Carré allemand dans le cimetière du Nord
 Cimetière anglais dans le cimetière Saint-Sever
-Cimetière français dans le cimetière Saint-Sever
-Cimetières anciens
-Aître Saint-Maclou, remplacé par le cimetière Saint-Maclou
+Cimetière français dans le cimetière Saint-Sever</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetières_rouennais</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8res_rouennais</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cimetières anciens</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aître Saint-Maclou, remplacé par le cimetière Saint-Maclou
 Cimetière Saint-Maur, fermé en 1883
 Cimetière Beauvoisine, fermé en 1893
 Cimetière de la Jatte, fermé en 1895, remplacé par le cimetière du Nord
